--- a/Shubhangi/Use_Cases_V_0_2.xlsx
+++ b/Shubhangi/Use_Cases_V_0_2.xlsx
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -331,9 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -646,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -703,7 +700,7 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -745,12 +742,12 @@
       <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -764,111 +761,111 @@
       <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="10"/>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="9"/>
+      <c r="D16" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="165">
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>5</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="45">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="150">
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>6</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="135">
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>7</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="60">
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>8</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="90">
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>9</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="D26" s="10"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
